--- a/DATA/GuitaFIXED.xlsx
+++ b/DATA/GuitaFIXED.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8055" activeTab="2"/>
@@ -12,12 +12,12 @@
     <sheet name="HIEU,LOAI,NCC" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="576">
   <si>
     <t>DDH</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Solid Indian Rosewood</t>
   </si>
   <si>
-    <t>EbonyFingerboard</t>
-  </si>
-  <si>
     <t>55Griffin Rd.S.Bloomfield</t>
   </si>
   <si>
@@ -538,21 +535,12 @@
     <t>C20</t>
   </si>
   <si>
-    <t>Jas</t>
-  </si>
-  <si>
     <t>Jasmine</t>
   </si>
   <si>
-    <t>OcS</t>
-  </si>
-  <si>
     <t>Oscar Schmidt</t>
   </si>
   <si>
-    <t>God</t>
-  </si>
-  <si>
     <t>OC11</t>
   </si>
   <si>
@@ -577,30 +565,18 @@
     <t>010A U</t>
   </si>
   <si>
-    <t>Sojing</t>
-  </si>
-  <si>
     <t>Fiesta CW7</t>
   </si>
   <si>
-    <t>Kmn</t>
-  </si>
-  <si>
     <t>Kramona</t>
   </si>
   <si>
     <t>WC750SWCE</t>
   </si>
   <si>
-    <t>WaB</t>
-  </si>
-  <si>
     <t>Washburn</t>
   </si>
   <si>
-    <t>AnH</t>
-  </si>
-  <si>
     <t>Antonio Hermosa</t>
   </si>
   <si>
@@ -622,9 +598,6 @@
     <t>LC100 BK</t>
   </si>
   <si>
-    <t>Lcr</t>
-  </si>
-  <si>
     <t>Lucero</t>
   </si>
   <si>
@@ -637,18 +610,12 @@
     <t>C542</t>
   </si>
   <si>
-    <t>Sta</t>
-  </si>
-  <si>
     <t>Stagg</t>
   </si>
   <si>
     <t>LG 510 3/4</t>
   </si>
   <si>
-    <t>Lcd</t>
-  </si>
-  <si>
     <t>Lucida</t>
   </si>
   <si>
@@ -661,9 +628,6 @@
     <t>AEG10NIIBK</t>
   </si>
   <si>
-    <t>Ibn</t>
-  </si>
-  <si>
     <t>Ibanez Guitars</t>
   </si>
   <si>
@@ -718,9 +682,6 @@
     <t>LG-520</t>
   </si>
   <si>
-    <t>Joh</t>
-  </si>
-  <si>
     <t>Johnson Guitar</t>
   </si>
   <si>
@@ -742,9 +703,6 @@
     <t>Manuel Roriguez</t>
   </si>
   <si>
-    <t>Cla</t>
-  </si>
-  <si>
     <t>Rosa Morena</t>
   </si>
   <si>
@@ -1411,9 +1369,6 @@
     <t>ALV</t>
   </si>
   <si>
-    <t>JOHN</t>
-  </si>
-  <si>
     <t>www.lucidaguitars.com</t>
   </si>
   <si>
@@ -1469,15 +1424,335 @@
   </si>
   <si>
     <t>Paseo Galatea, 25, 45221 Esquivias, Toledo</t>
+  </si>
+  <si>
+    <t>Ebony</t>
+  </si>
+  <si>
+    <t>AC-0001</t>
+  </si>
+  <si>
+    <t>AC-0002</t>
+  </si>
+  <si>
+    <t>AC-0003</t>
+  </si>
+  <si>
+    <t>AC-0004</t>
+  </si>
+  <si>
+    <t>AC-0005</t>
+  </si>
+  <si>
+    <t>AC-0006</t>
+  </si>
+  <si>
+    <t>AC-0007</t>
+  </si>
+  <si>
+    <t>AC-0008</t>
+  </si>
+  <si>
+    <t>AC-0009</t>
+  </si>
+  <si>
+    <t>AC-0010</t>
+  </si>
+  <si>
+    <t>AC-0011</t>
+  </si>
+  <si>
+    <t>AC-0012</t>
+  </si>
+  <si>
+    <t>AC-0013</t>
+  </si>
+  <si>
+    <t>AC-0014</t>
+  </si>
+  <si>
+    <t>AC-0015</t>
+  </si>
+  <si>
+    <t>AC-0016</t>
+  </si>
+  <si>
+    <t>AC-0017</t>
+  </si>
+  <si>
+    <t>AC-0018</t>
+  </si>
+  <si>
+    <t>AC-0019</t>
+  </si>
+  <si>
+    <t>AC-0020</t>
+  </si>
+  <si>
+    <t>AC-0021</t>
+  </si>
+  <si>
+    <t>AC-0022</t>
+  </si>
+  <si>
+    <t>AC-0023</t>
+  </si>
+  <si>
+    <t>AC-0024</t>
+  </si>
+  <si>
+    <t>AC-0025</t>
+  </si>
+  <si>
+    <t>AC-0026</t>
+  </si>
+  <si>
+    <t>AC-0027</t>
+  </si>
+  <si>
+    <t>AC-0028</t>
+  </si>
+  <si>
+    <t>AC-0029</t>
+  </si>
+  <si>
+    <t>AC-0030</t>
+  </si>
+  <si>
+    <t>AC-0031</t>
+  </si>
+  <si>
+    <t>AC-0032</t>
+  </si>
+  <si>
+    <t>AC-0033</t>
+  </si>
+  <si>
+    <t>AC-0034</t>
+  </si>
+  <si>
+    <t>AC-0035</t>
+  </si>
+  <si>
+    <t>AC-0036</t>
+  </si>
+  <si>
+    <t>AC-0037</t>
+  </si>
+  <si>
+    <t>AC-0038</t>
+  </si>
+  <si>
+    <t>AC-0039</t>
+  </si>
+  <si>
+    <t>AC-0040</t>
+  </si>
+  <si>
+    <t>AC-0041</t>
+  </si>
+  <si>
+    <t>AC-0042</t>
+  </si>
+  <si>
+    <t>AC-0043</t>
+  </si>
+  <si>
+    <t>AC-0044</t>
+  </si>
+  <si>
+    <t>AC-0045</t>
+  </si>
+  <si>
+    <t>AC-0046</t>
+  </si>
+  <si>
+    <t>AC-0047</t>
+  </si>
+  <si>
+    <t>AC-0048</t>
+  </si>
+  <si>
+    <t>AC-0049</t>
+  </si>
+  <si>
+    <t>AC-0050</t>
+  </si>
+  <si>
+    <t>CL-00001</t>
+  </si>
+  <si>
+    <t>CL-00002</t>
+  </si>
+  <si>
+    <t>CL-00003</t>
+  </si>
+  <si>
+    <t>CL-00004</t>
+  </si>
+  <si>
+    <t>CL-00005</t>
+  </si>
+  <si>
+    <t>CL-00006</t>
+  </si>
+  <si>
+    <t>CL-00007</t>
+  </si>
+  <si>
+    <t>CL-00008</t>
+  </si>
+  <si>
+    <t>CL-00009</t>
+  </si>
+  <si>
+    <t>CL-00010</t>
+  </si>
+  <si>
+    <t>CL-00011</t>
+  </si>
+  <si>
+    <t>CL-00012</t>
+  </si>
+  <si>
+    <t>CL-00013</t>
+  </si>
+  <si>
+    <t>CL-00014</t>
+  </si>
+  <si>
+    <t>CL-00015</t>
+  </si>
+  <si>
+    <t>CL-00016</t>
+  </si>
+  <si>
+    <t>CL-00017</t>
+  </si>
+  <si>
+    <t>CL-00018</t>
+  </si>
+  <si>
+    <t>CL-00019</t>
+  </si>
+  <si>
+    <t>CL-00020</t>
+  </si>
+  <si>
+    <t>CL-00021</t>
+  </si>
+  <si>
+    <t>CL-00022</t>
+  </si>
+  <si>
+    <t>CL-00023</t>
+  </si>
+  <si>
+    <t>CL-00024</t>
+  </si>
+  <si>
+    <t>CL-00025</t>
+  </si>
+  <si>
+    <t>CL-00026</t>
+  </si>
+  <si>
+    <t>CL-00027</t>
+  </si>
+  <si>
+    <t>CL-00028</t>
+  </si>
+  <si>
+    <t>CL-00029</t>
+  </si>
+  <si>
+    <t>CL-00030</t>
+  </si>
+  <si>
+    <t>CL-00031</t>
+  </si>
+  <si>
+    <t>CL-00032</t>
+  </si>
+  <si>
+    <t>CL-00033</t>
+  </si>
+  <si>
+    <t>CL-00034</t>
+  </si>
+  <si>
+    <t>CL-00035</t>
+  </si>
+  <si>
+    <t>CL-00036</t>
+  </si>
+  <si>
+    <t>CL-00037</t>
+  </si>
+  <si>
+    <t>CL-00038</t>
+  </si>
+  <si>
+    <t>CL-00039</t>
+  </si>
+  <si>
+    <t>CL-00040</t>
+  </si>
+  <si>
+    <t>CL-00041</t>
+  </si>
+  <si>
+    <t>CL-00042</t>
+  </si>
+  <si>
+    <t>CL-00043</t>
+  </si>
+  <si>
+    <t>CL-00044</t>
+  </si>
+  <si>
+    <t>CL-00045</t>
+  </si>
+  <si>
+    <t>CL-00046</t>
+  </si>
+  <si>
+    <t>CL-00047</t>
+  </si>
+  <si>
+    <t>CL-00048</t>
+  </si>
+  <si>
+    <t>CL-00049</t>
+  </si>
+  <si>
+    <t>CL-00050</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CL-00051</t>
+  </si>
+  <si>
+    <t>SQJ</t>
+  </si>
+  <si>
+    <t>WA B</t>
+  </si>
+  <si>
+    <t>WAB</t>
+  </si>
+  <si>
+    <t>WAH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$VND]\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$VND]\ #,##0"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1709,7 +1984,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1730,7 +2005,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1740,10 +2014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1764,6 +2035,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1771,7 +2044,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$VND]\ #,##0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2003,7 +2276,7 @@
       <calculatedColumnFormula>24000*479</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="SLTON" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="BH" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="1" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2132,7 +2405,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2167,7 +2439,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2343,11 +2614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M267"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62:D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2369,7 +2640,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2392,23 +2666,23 @@
         <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>470</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E3" s="26">
+        <v>351</v>
+      </c>
+      <c r="E3" s="2">
         <f>24000*479</f>
         <v>11496000</v>
       </c>
@@ -2420,19 +2694,19 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>471</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E4" s="26">
+        <v>350</v>
+      </c>
+      <c r="E4" s="2">
         <f>24000*999</f>
         <v>23976000</v>
       </c>
@@ -2444,19 +2718,19 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>472</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E5" s="26">
+        <v>350</v>
+      </c>
+      <c r="E5" s="2">
         <f>24000*999</f>
         <v>23976000</v>
       </c>
@@ -2468,19 +2742,19 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>473</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D6" t="s">
-        <v>364</v>
-      </c>
-      <c r="E6" s="27">
+        <v>350</v>
+      </c>
+      <c r="E6" s="42">
         <f>24000*599.99</f>
         <v>14399760</v>
       </c>
@@ -2492,19 +2766,19 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>474</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
-      </c>
-      <c r="E7" s="26">
+        <v>357</v>
+      </c>
+      <c r="E7" s="2">
         <f>4000*24000</f>
         <v>96000000</v>
       </c>
@@ -2516,19 +2790,19 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>475</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E8" s="26">
+        <v>350</v>
+      </c>
+      <c r="E8" s="2">
         <f>24000*379.99</f>
         <v>9119760</v>
       </c>
@@ -2540,19 +2814,19 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>476</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D9" t="s">
-        <v>412</v>
-      </c>
-      <c r="E9" s="26">
+        <v>398</v>
+      </c>
+      <c r="E9" s="2">
         <f>24000*2599</f>
         <v>62376000</v>
       </c>
@@ -2564,19 +2838,19 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>477</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
-      </c>
-      <c r="E10" s="26">
+        <v>350</v>
+      </c>
+      <c r="E10" s="2">
         <f>24000*2599</f>
         <v>62376000</v>
       </c>
@@ -2588,19 +2862,19 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>478</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E11" s="27">
+        <v>398</v>
+      </c>
+      <c r="E11" s="42">
         <f>24000*1039</f>
         <v>24936000</v>
       </c>
@@ -2612,19 +2886,19 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>479</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D12" t="s">
-        <v>364</v>
-      </c>
-      <c r="E12" s="26">
+        <v>350</v>
+      </c>
+      <c r="E12" s="2">
         <f>24000*1099</f>
         <v>26376000</v>
       </c>
@@ -2636,19 +2910,19 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>480</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
-      </c>
-      <c r="E13" s="26">
+        <v>352</v>
+      </c>
+      <c r="E13" s="2">
         <f>24000*1099</f>
         <v>26376000</v>
       </c>
@@ -2660,19 +2934,19 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>481</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D14" t="s">
-        <v>364</v>
-      </c>
-      <c r="E14" s="26">
+        <v>350</v>
+      </c>
+      <c r="E14" s="2">
         <f>24000*469</f>
         <v>11256000</v>
       </c>
@@ -2684,19 +2958,19 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15">
-        <v>13</v>
+      <c r="A15" t="s">
+        <v>482</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D15" t="s">
-        <v>384</v>
-      </c>
-      <c r="E15" s="26">
+        <v>370</v>
+      </c>
+      <c r="E15" s="2">
         <f>24000*1269</f>
         <v>30456000</v>
       </c>
@@ -2708,19 +2982,19 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16">
-        <v>14</v>
+      <c r="A16" t="s">
+        <v>483</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D16" t="s">
-        <v>412</v>
-      </c>
-      <c r="E16" s="27">
+        <v>398</v>
+      </c>
+      <c r="E16" s="42">
         <f>24000*3329</f>
         <v>79896000</v>
       </c>
@@ -2732,19 +3006,19 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>484</v>
       </c>
       <c r="B17" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="E17" s="26">
+        <v>110</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" s="2">
         <f>24000*5999</f>
         <v>143976000</v>
       </c>
@@ -2756,19 +3030,19 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18">
-        <v>16</v>
+      <c r="A18" t="s">
+        <v>485</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>366</v>
-      </c>
-      <c r="E18" s="26">
+        <v>352</v>
+      </c>
+      <c r="E18" s="2">
         <f>24000*5050</f>
         <v>121200000</v>
       </c>
@@ -2780,19 +3054,19 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>486</v>
       </c>
       <c r="B19" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>371</v>
-      </c>
-      <c r="E19" s="26">
+        <v>357</v>
+      </c>
+      <c r="E19" s="2">
         <f>24000*4200</f>
         <v>100800000</v>
       </c>
@@ -2804,19 +3078,19 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20">
-        <v>18</v>
+      <c r="A20" t="s">
+        <v>487</v>
       </c>
       <c r="B20" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
-      </c>
-      <c r="E20" s="26">
+        <v>350</v>
+      </c>
+      <c r="E20" s="2">
         <f>3900*24000</f>
         <v>93600000</v>
       </c>
@@ -2828,19 +3102,19 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>488</v>
       </c>
       <c r="B21" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E21" s="26">
+        <v>350</v>
+      </c>
+      <c r="E21" s="2">
         <f>60000*24000</f>
         <v>1440000000</v>
       </c>
@@ -2852,19 +3126,19 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20</v>
+      <c r="A22" t="s">
+        <v>489</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D22" t="s">
-        <v>384</v>
-      </c>
-      <c r="E22" s="26">
+        <v>370</v>
+      </c>
+      <c r="E22" s="2">
         <f>24000*1349.99</f>
         <v>32399760</v>
       </c>
@@ -2876,19 +3150,19 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23">
-        <v>21</v>
+      <c r="A23" t="s">
+        <v>490</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D23" t="s">
-        <v>384</v>
-      </c>
-      <c r="E23" s="26">
+        <v>370</v>
+      </c>
+      <c r="E23" s="2">
         <f>24000*3499.99</f>
         <v>83999760</v>
       </c>
@@ -2900,19 +3174,19 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24">
-        <v>22</v>
+      <c r="A24" t="s">
+        <v>491</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D24" t="s">
-        <v>384</v>
-      </c>
-      <c r="E24" s="27">
+        <v>370</v>
+      </c>
+      <c r="E24" s="42">
         <f>24000*1749.99</f>
         <v>41999760</v>
       </c>
@@ -2924,19 +3198,19 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25">
-        <v>23</v>
+      <c r="A25" t="s">
+        <v>492</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" s="26">
+        <v>350</v>
+      </c>
+      <c r="E25" s="2">
         <f>24000*599.99</f>
         <v>14399760</v>
       </c>
@@ -2948,19 +3222,19 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26">
-        <v>24</v>
+      <c r="A26" t="s">
+        <v>493</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D26" t="s">
-        <v>364</v>
-      </c>
-      <c r="E26" s="26">
+        <v>350</v>
+      </c>
+      <c r="E26" s="2">
         <f>500*24000</f>
         <v>12000000</v>
       </c>
@@ -2972,19 +3246,19 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27">
-        <v>25</v>
+      <c r="A27" t="s">
+        <v>494</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D27" t="s">
-        <v>364</v>
-      </c>
-      <c r="E27" s="26">
+        <v>350</v>
+      </c>
+      <c r="E27" s="2">
         <f>24000*795</f>
         <v>19080000</v>
       </c>
@@ -2996,19 +3270,19 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28">
-        <v>26</v>
+      <c r="A28" t="s">
+        <v>495</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D28" t="s">
-        <v>364</v>
-      </c>
-      <c r="E28" s="27">
+        <v>350</v>
+      </c>
+      <c r="E28" s="42">
         <f>24000*499</f>
         <v>11976000</v>
       </c>
@@ -3020,19 +3294,19 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29">
-        <v>27</v>
+      <c r="A29" t="s">
+        <v>496</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E29" s="26">
+        <v>359</v>
+      </c>
+      <c r="E29" s="2">
         <f>24000*399</f>
         <v>9576000</v>
       </c>
@@ -3044,19 +3318,19 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30">
-        <v>28</v>
+      <c r="A30" t="s">
+        <v>497</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D30" t="s">
-        <v>372</v>
-      </c>
-      <c r="E30" s="26">
+        <v>358</v>
+      </c>
+      <c r="E30" s="2">
         <f>24000*1899</f>
         <v>45576000</v>
       </c>
@@ -3068,19 +3342,19 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31">
-        <v>29</v>
+      <c r="A31" t="s">
+        <v>498</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C31" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D31" t="s">
-        <v>412</v>
-      </c>
-      <c r="E31" s="26">
+        <v>398</v>
+      </c>
+      <c r="E31" s="2">
         <f>24000*749</f>
         <v>17976000</v>
       </c>
@@ -3092,19 +3366,19 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32">
-        <v>30</v>
+      <c r="A32" t="s">
+        <v>499</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D32" t="s">
-        <v>367</v>
-      </c>
-      <c r="E32" s="26">
+        <v>353</v>
+      </c>
+      <c r="E32" s="2">
         <f>24000*799</f>
         <v>19176000</v>
       </c>
@@ -3116,19 +3390,19 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33">
-        <v>31</v>
+      <c r="A33" t="s">
+        <v>500</v>
       </c>
       <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
         <v>126</v>
       </c>
-      <c r="C33" t="s">
-        <v>127</v>
-      </c>
       <c r="D33" t="s">
-        <v>366</v>
-      </c>
-      <c r="E33" s="27">
+        <v>352</v>
+      </c>
+      <c r="E33" s="42">
         <f>24000*479.99</f>
         <v>11519760</v>
       </c>
@@ -3140,19 +3414,19 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34">
-        <v>32</v>
+      <c r="A34" t="s">
+        <v>501</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>366</v>
-      </c>
-      <c r="E34" s="26">
+        <v>352</v>
+      </c>
+      <c r="E34" s="2">
         <f>24000*319.99</f>
         <v>7679760</v>
       </c>
@@ -3164,19 +3438,19 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35">
-        <v>33</v>
+      <c r="A35" t="s">
+        <v>502</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>369</v>
-      </c>
-      <c r="E35" s="26">
+        <v>355</v>
+      </c>
+      <c r="E35" s="2">
         <f>24000*479.99</f>
         <v>11519760</v>
       </c>
@@ -3188,19 +3462,19 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36">
-        <v>34</v>
+      <c r="A36" t="s">
+        <v>503</v>
       </c>
       <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
         <v>132</v>
       </c>
-      <c r="C36" t="s">
-        <v>133</v>
-      </c>
       <c r="D36" t="s">
-        <v>364</v>
-      </c>
-      <c r="E36" s="26">
+        <v>350</v>
+      </c>
+      <c r="E36" s="2">
         <f>24000*643.45</f>
         <v>15442800.000000002</v>
       </c>
@@ -3212,19 +3486,19 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37">
-        <v>35</v>
+      <c r="A37" t="s">
+        <v>504</v>
       </c>
       <c r="B37" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>364</v>
-      </c>
-      <c r="E37" s="26">
+        <v>350</v>
+      </c>
+      <c r="E37" s="2">
         <f>24000*372.5</f>
         <v>8940000</v>
       </c>
@@ -3236,19 +3510,19 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38">
-        <v>36</v>
+      <c r="A38" t="s">
+        <v>505</v>
       </c>
       <c r="B38" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>364</v>
-      </c>
-      <c r="E38" s="26">
+        <v>350</v>
+      </c>
+      <c r="E38" s="2">
         <f>24000*372.5</f>
         <v>8940000</v>
       </c>
@@ -3260,19 +3534,19 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39">
-        <v>37</v>
+      <c r="A39" t="s">
+        <v>506</v>
       </c>
       <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="C39" t="s">
-        <v>137</v>
-      </c>
       <c r="D39" t="s">
-        <v>372</v>
-      </c>
-      <c r="E39" s="26">
+        <v>358</v>
+      </c>
+      <c r="E39" s="2">
         <f>24000*356</f>
         <v>8544000</v>
       </c>
@@ -3284,19 +3558,19 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40">
-        <v>38</v>
+      <c r="A40" t="s">
+        <v>507</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>372</v>
-      </c>
-      <c r="E40" s="27">
+        <v>358</v>
+      </c>
+      <c r="E40" s="42">
         <f>24000*427</f>
         <v>10248000</v>
       </c>
@@ -3308,19 +3582,19 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41">
-        <v>39</v>
+      <c r="A41" t="s">
+        <v>508</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>372</v>
-      </c>
-      <c r="E41" s="26">
+        <v>358</v>
+      </c>
+      <c r="E41" s="2">
         <f>24000*570</f>
         <v>13680000</v>
       </c>
@@ -3332,19 +3606,19 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42">
-        <v>40</v>
+      <c r="A42" t="s">
+        <v>509</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="D42" t="s">
-        <v>364</v>
-      </c>
-      <c r="E42" s="26">
+        <v>350</v>
+      </c>
+      <c r="E42" s="2">
         <f>24000*719</f>
         <v>17256000</v>
       </c>
@@ -3356,19 +3630,19 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43">
-        <v>41</v>
+      <c r="A43" t="s">
+        <v>510</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" t="s">
         <v>353</v>
       </c>
-      <c r="D43" t="s">
-        <v>367</v>
-      </c>
-      <c r="E43" s="26">
+      <c r="E43" s="2">
         <f>24000*899</f>
         <v>21576000</v>
       </c>
@@ -3380,19 +3654,19 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44">
-        <v>42</v>
+      <c r="A44" t="s">
+        <v>511</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D44" t="s">
-        <v>416</v>
-      </c>
-      <c r="E44" s="26">
+        <v>402</v>
+      </c>
+      <c r="E44" s="2">
         <f>24000*899</f>
         <v>21576000</v>
       </c>
@@ -3404,19 +3678,19 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45">
-        <v>43</v>
+      <c r="A45" t="s">
+        <v>512</v>
       </c>
       <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
         <v>146</v>
       </c>
-      <c r="C45" t="s">
-        <v>147</v>
-      </c>
       <c r="D45" t="s">
-        <v>364</v>
-      </c>
-      <c r="E45" s="26">
+        <v>350</v>
+      </c>
+      <c r="E45" s="2">
         <f>24000*3599.99</f>
         <v>86399760</v>
       </c>
@@ -3428,19 +3702,19 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46">
-        <v>44</v>
+      <c r="A46" t="s">
+        <v>513</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>373</v>
-      </c>
-      <c r="E46" s="26">
+        <v>359</v>
+      </c>
+      <c r="E46" s="2">
         <f>24000*3699.99</f>
         <v>88799760</v>
       </c>
@@ -3452,19 +3726,19 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47">
-        <v>45</v>
+      <c r="A47" t="s">
+        <v>514</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>364</v>
-      </c>
-      <c r="E47" s="26">
+        <v>350</v>
+      </c>
+      <c r="E47" s="2">
         <f>24000*2699.99</f>
         <v>64799759.999999993</v>
       </c>
@@ -3476,19 +3750,19 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48">
-        <v>46</v>
+      <c r="A48" t="s">
+        <v>515</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>372</v>
-      </c>
-      <c r="E48" s="26">
+        <v>358</v>
+      </c>
+      <c r="E48" s="2">
         <f>24000*799</f>
         <v>19176000</v>
       </c>
@@ -3500,19 +3774,19 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49">
-        <v>47</v>
+      <c r="A49" t="s">
+        <v>516</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>373</v>
-      </c>
-      <c r="E49" s="27">
+        <v>359</v>
+      </c>
+      <c r="E49" s="42">
         <f>24000*799</f>
         <v>19176000</v>
       </c>
@@ -3524,19 +3798,19 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50">
-        <v>48</v>
+      <c r="A50" t="s">
+        <v>517</v>
       </c>
       <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
         <v>159</v>
       </c>
-      <c r="C50" t="s">
-        <v>160</v>
-      </c>
       <c r="D50" t="s">
-        <v>417</v>
-      </c>
-      <c r="E50" s="26">
+        <v>403</v>
+      </c>
+      <c r="E50" s="2">
         <f>24000*599.99</f>
         <v>14399760</v>
       </c>
@@ -3548,19 +3822,19 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51">
-        <v>49</v>
+      <c r="A51" t="s">
+        <v>518</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>364</v>
-      </c>
-      <c r="E51" s="26">
+        <v>350</v>
+      </c>
+      <c r="E51" s="2">
         <f>24000*599.99</f>
         <v>14399760</v>
       </c>
@@ -3572,19 +3846,19 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52">
-        <v>50</v>
+      <c r="A52" t="s">
+        <v>519</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>369</v>
-      </c>
-      <c r="E52" s="26">
+        <v>355</v>
+      </c>
+      <c r="E52" s="2">
         <f>24000*1499.99</f>
         <v>35999760</v>
       </c>
@@ -3611,7 +3885,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3631,909 +3905,1209 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="1">
-        <v>51</v>
+      <c r="A62" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="16">
+        <v>356</v>
+      </c>
+      <c r="E62" s="42">
         <f>24000*755</f>
         <v>18120000</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="1">
-        <v>52</v>
+      <c r="A63" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E63" s="15">
+        <v>356</v>
+      </c>
+      <c r="E63" s="2">
         <f>24000*995</f>
         <v>23880000</v>
       </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="1">
-        <v>53</v>
+      <c r="A64" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E64" s="15">
+        <v>356</v>
+      </c>
+      <c r="E64" s="2">
         <f>24000*755</f>
         <v>18120000</v>
       </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="1">
-        <v>54</v>
+      <c r="A65" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E65" s="15">
+        <v>356</v>
+      </c>
+      <c r="E65" s="2">
         <f>24000*199.99</f>
         <v>4799760</v>
       </c>
+      <c r="F65" s="1">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="1">
-        <v>55</v>
+      <c r="A66" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>377</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E66" s="15">
+        <v>356</v>
+      </c>
+      <c r="E66" s="2">
         <v>6153361</v>
       </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A67" s="1">
-        <v>56</v>
+      <c r="A67" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C67" t="s">
+        <v>385</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3405627</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" t="s">
+        <v>385</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3652915</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E67" s="15">
-        <v>3405627</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1">
-        <v>57</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E69" s="2">
+        <v>11766257</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C68" t="s">
-        <v>175</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68" s="15">
-        <v>3652915</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1">
-        <v>58</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="C70" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E70" s="2">
+        <v>9551659</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B71" t="s">
         <v>179</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C71" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E71" s="2">
+        <v>9867302</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B72" t="s">
         <v>180</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" s="15">
-        <v>11766257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1">
-        <v>59</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E70" s="15">
-        <v>9551659</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1">
-        <v>60</v>
-      </c>
-      <c r="B71" t="s">
-        <v>183</v>
-      </c>
-      <c r="C71" t="s">
-        <v>180</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E71" s="15">
-        <v>9867302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72">
-        <v>61</v>
-      </c>
-      <c r="B72" t="s">
-        <v>184</v>
-      </c>
       <c r="C72" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E72" s="15">
+        <v>356</v>
+      </c>
+      <c r="E72" s="2">
         <v>57928974</v>
       </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73">
-        <v>62</v>
+      <c r="A73" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>572</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E73" s="15">
+        <v>356</v>
+      </c>
+      <c r="E73" s="2">
         <v>7461502</v>
       </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74">
-        <v>63</v>
+      <c r="A74" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="B74" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E74" s="15">
+        <v>356</v>
+      </c>
+      <c r="E74" s="2">
         <f>24000*99.99</f>
         <v>2399760</v>
       </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75">
-        <v>64</v>
+      <c r="A75" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="B75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" t="s">
+        <v>386</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E75" s="2">
+        <v>32916076</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" t="s">
+        <v>573</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E76" s="2">
+        <v>16572918</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B77" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" t="s">
+        <v>387</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E77" s="2">
+        <v>4530055</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B78" t="s">
+        <v>395</v>
+      </c>
+      <c r="C78" t="s">
+        <v>371</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E78" s="2">
+        <v>10641670</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>12</v>
+      </c>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B79" t="s">
         <v>187</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C79" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E79" s="2">
+        <v>3331059</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B80" t="s">
         <v>188</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E75" s="15">
-        <v>32916076</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76">
-        <v>65</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C80" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E80" s="2">
+        <v>4282767</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E81" s="2">
+        <v>36349906</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B82" t="s">
         <v>190</v>
       </c>
-      <c r="C76" t="s">
-        <v>191</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="15">
-        <v>16572918</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77">
-        <v>66</v>
-      </c>
-      <c r="B77" t="s">
-        <v>199</v>
-      </c>
-      <c r="C77" t="s">
-        <v>193</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E77" s="15">
-        <v>4530055</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78">
-        <v>67</v>
-      </c>
-      <c r="B78" t="s">
-        <v>409</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="C82" t="s">
+        <v>371</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E82" s="2">
+        <v>10641670</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B83" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" t="s">
+        <v>374</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3858139</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E84" s="2">
+        <v>5797725</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" t="s">
+        <v>388</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E85" s="2">
+        <v>4330089</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" t="s">
+        <v>389</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2781671</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" t="s">
+        <v>574</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E87" s="2">
+        <v>6592169</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" t="s">
+        <v>575</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E88" s="2">
+        <v>7815863</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B89" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" t="s">
+        <v>365</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E89" s="2">
+        <v>34682306</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B90" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" t="s">
+        <v>390</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E90" s="2">
+        <v>7380719</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E91" s="2">
+        <v>3872160</v>
+      </c>
+      <c r="F91" s="1">
+        <v>8</v>
+      </c>
+      <c r="G91" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" t="s">
         <v>385</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E78" s="15">
-        <v>10641670</v>
-      </c>
-      <c r="J78" s="6"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79">
-        <v>68</v>
-      </c>
-      <c r="B79" t="s">
-        <v>195</v>
-      </c>
-      <c r="C79" t="s">
-        <v>180</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E79" s="15">
-        <v>3331059</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80">
-        <v>69</v>
-      </c>
-      <c r="B80" t="s">
-        <v>196</v>
-      </c>
-      <c r="C80" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E80" s="15">
-        <v>4282767</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
-        <v>70</v>
-      </c>
-      <c r="B81" t="s">
-        <v>197</v>
-      </c>
-      <c r="C81" t="s">
-        <v>177</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E81" s="15">
-        <v>36349906</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82">
-        <v>71</v>
-      </c>
-      <c r="B82" t="s">
-        <v>198</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D92" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E92" s="2">
+        <v>3079309</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B93" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" t="s">
         <v>385</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E82" s="15">
-        <v>10641670</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83">
-        <v>72</v>
-      </c>
-      <c r="B83" t="s">
-        <v>200</v>
-      </c>
-      <c r="C83" t="s">
-        <v>201</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E83" s="15">
-        <v>3858139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84">
-        <v>73</v>
-      </c>
-      <c r="B84" t="s">
-        <v>203</v>
-      </c>
-      <c r="C84" t="s">
-        <v>204</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E84" s="15">
-        <v>5797725</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85">
-        <v>74</v>
-      </c>
-      <c r="B85" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" t="s">
-        <v>206</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E85" s="15">
-        <v>4330089</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86">
-        <v>75</v>
-      </c>
-      <c r="B86" t="s">
-        <v>208</v>
-      </c>
-      <c r="C86" t="s">
-        <v>209</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E86" s="15">
-        <v>2781671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <v>76</v>
-      </c>
-      <c r="B87" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E87" s="15">
-        <v>6592169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88">
-        <v>77</v>
-      </c>
-      <c r="B88" t="s">
-        <v>211</v>
-      </c>
-      <c r="C88" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E88" s="15">
-        <v>7815863</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <v>78</v>
-      </c>
-      <c r="B89" t="s">
-        <v>212</v>
-      </c>
-      <c r="C89" t="s">
-        <v>68</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E89" s="15">
-        <v>34682306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90">
-        <v>79</v>
-      </c>
-      <c r="B90" t="s">
-        <v>213</v>
-      </c>
-      <c r="C90" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E90" s="15">
-        <v>7380719</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91">
-        <v>80</v>
-      </c>
-      <c r="B91" t="s">
-        <v>216</v>
-      </c>
-      <c r="C91" t="s">
-        <v>180</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E91" s="15">
-        <v>3872160</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92">
-        <v>81</v>
-      </c>
-      <c r="B92" t="s">
-        <v>217</v>
-      </c>
-      <c r="C92" t="s">
-        <v>175</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E92" s="15">
-        <v>3079309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93">
-        <v>82</v>
-      </c>
-      <c r="B93" t="s">
-        <v>218</v>
-      </c>
-      <c r="C93" t="s">
-        <v>175</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E93" s="15">
+        <v>356</v>
+      </c>
+      <c r="E93" s="2">
         <v>5159747</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94">
-        <v>83</v>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="B94" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E94" s="15">
+        <v>356</v>
+      </c>
+      <c r="E94" s="2">
         <f>24000*269.99</f>
         <v>6479760</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <v>84</v>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="B95" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E95" s="15">
+        <v>356</v>
+      </c>
+      <c r="E95" s="2">
         <f>24000*279.99</f>
         <v>6719760</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96">
-        <v>85</v>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E96" s="15">
+        <v>356</v>
+      </c>
+      <c r="E96" s="2">
         <f>24000*349.99</f>
         <v>8399760</v>
       </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97">
-        <v>86</v>
+      <c r="A97" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>390</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E97" s="15">
+        <v>356</v>
+      </c>
+      <c r="E97" s="2">
         <f>24000*299.99</f>
         <v>7199760</v>
       </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98">
-        <v>87</v>
+      <c r="A98" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>390</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E98" s="15">
+        <v>356</v>
+      </c>
+      <c r="E98" s="2">
         <f>24000*249.99</f>
         <v>5999760</v>
       </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99">
-        <v>88</v>
+      <c r="A99" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E99" s="15">
+        <v>356</v>
+      </c>
+      <c r="E99" s="2">
         <f>24000*199.99</f>
         <v>4799760</v>
       </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100">
-        <v>89</v>
+      <c r="A100" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="B100" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C100" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E100" s="15">
+        <v>356</v>
+      </c>
+      <c r="E100" s="2">
         <f>24000*299.99</f>
         <v>7199760</v>
       </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101">
-        <v>90</v>
+      <c r="A101" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E101" s="15">
+        <v>356</v>
+      </c>
+      <c r="E101" s="2">
         <f>24000*399.99</f>
         <v>9599760</v>
       </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102">
-        <v>91</v>
+      <c r="A102" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E102" s="15">
+        <v>356</v>
+      </c>
+      <c r="E102" s="2">
         <f>24000*419.99</f>
         <v>10079760</v>
       </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103">
-        <v>92</v>
+      <c r="A103" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="B103" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>390</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E103" s="15">
+        <v>356</v>
+      </c>
+      <c r="E103" s="2">
         <f>24000*299.99</f>
         <v>7199760</v>
       </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104">
-        <v>93</v>
+      <c r="A104" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="B104" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C104" t="s">
-        <v>233</v>
+        <v>391</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E104" s="15">
+        <v>356</v>
+      </c>
+      <c r="E104" s="2">
         <f>24000*89.99</f>
         <v>2159760</v>
       </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105">
-        <v>94</v>
+      <c r="A105" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>386</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E105" s="15">
+        <v>356</v>
+      </c>
+      <c r="E105" s="2">
         <f>24000*1299</f>
         <v>31176000</v>
       </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106">
-        <v>95</v>
+      <c r="A106" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="B106" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C106" t="s">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E106" s="15">
+        <v>356</v>
+      </c>
+      <c r="E106" s="2">
         <f>24000*399.99</f>
         <v>9599760</v>
       </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107">
-        <v>96</v>
+      <c r="A107" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="B107" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E107" s="15">
+        <v>356</v>
+      </c>
+      <c r="E107" s="2">
         <f>24000*299.99</f>
         <v>7199760</v>
       </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108">
-        <v>97</v>
+      <c r="A108" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C108" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E108" s="15">
+        <v>356</v>
+      </c>
+      <c r="E108" s="2">
         <f>24000*799.99</f>
         <v>19199760</v>
       </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109">
-        <v>98</v>
+      <c r="A109" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="B109" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C109" t="s">
-        <v>188</v>
+        <v>386</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E109" s="15">
+        <v>356</v>
+      </c>
+      <c r="E109" s="2">
         <f>24000*599.99</f>
         <v>14399760</v>
       </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="1">
-        <v>99</v>
+      <c r="A110" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>188</v>
+        <v>386</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E110" s="16">
+        <v>356</v>
+      </c>
+      <c r="E110" s="42">
         <f>24000*1099</f>
         <v>26376000</v>
       </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111">
-        <v>100</v>
+      <c r="A111" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>377</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E111" s="15">
+        <v>356</v>
+      </c>
+      <c r="E111" s="2">
         <f>24000*164.9</f>
         <v>3957600</v>
       </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="1">
-        <v>101</v>
+      <c r="A112" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>188</v>
+        <v>386</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E112" s="16">
+        <v>356</v>
+      </c>
+      <c r="E112" s="42">
         <f>24000*849</f>
         <v>20376000</v>
       </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="134" spans="5:5">
       <c r="E134" s="3"/>
@@ -4840,11 +5414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A106"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4856,7 +5430,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4892,25 +5466,25 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="G3" s="17">
+      <c r="A3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="16">
         <v>1</v>
       </c>
       <c r="I3" t="s">
@@ -4933,824 +5507,824 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="A4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="J4" t="s">
         <v>76</v>
       </c>
       <c r="M4" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="N4" t="s">
         <v>74</v>
       </c>
       <c r="P4" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="Q4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="A5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>342</v>
-      </c>
       <c r="J5" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="M5" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="N5" t="s">
         <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="Q5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="A6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M6" t="s">
+        <v>317</v>
+      </c>
+      <c r="N6" t="s">
+        <v>316</v>
+      </c>
+      <c r="P6" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M7" t="s">
+        <v>318</v>
+      </c>
+      <c r="N7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="M6" t="s">
-        <v>331</v>
-      </c>
-      <c r="N6" t="s">
-        <v>330</v>
-      </c>
-      <c r="P6" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="M7" t="s">
-        <v>332</v>
-      </c>
-      <c r="N7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="C8" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" s="18">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="M8" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="N8" t="s">
         <v>79</v>
       </c>
       <c r="P8" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="Q8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="A9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>428</v>
+      </c>
+      <c r="J9" t="s">
+        <v>427</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J9" t="s">
-        <v>441</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>425</v>
+      </c>
+      <c r="J10" t="s">
+        <v>424</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>331</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>426</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>389</v>
+      </c>
+      <c r="J13" t="s">
+        <v>423</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" s="35">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="18" t="s">
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>439</v>
-      </c>
-      <c r="J10" t="s">
-        <v>438</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>345</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>440</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>403</v>
-      </c>
-      <c r="J13" t="s">
-        <v>437</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" t="s">
         <v>314</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="D17" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="G15" s="39">
-        <v>1</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="J16" s="19" t="s">
+      <c r="E17" t="s">
         <v>314</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>344</v>
-      </c>
-      <c r="C17" t="s">
-        <v>328</v>
-      </c>
-      <c r="D17" t="s">
-        <v>328</v>
-      </c>
-      <c r="E17" t="s">
-        <v>328</v>
-      </c>
       <c r="F17" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="M17" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="N17" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="P17" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="Q17" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18">
-        <v>16</v>
+      <c r="A18" t="s">
+        <v>485</v>
       </c>
       <c r="B18" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="E18" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F18" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="M18" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="N18" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="P18" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="Q18" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>486</v>
       </c>
       <c r="B19" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C19" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E19" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F19" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="N19" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="P19" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="Q19" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20">
-        <v>18</v>
+      <c r="A20" t="s">
+        <v>487</v>
       </c>
       <c r="B20" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" t="s">
         <v>333</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>429</v>
+      </c>
+      <c r="N20" t="s">
+        <v>430</v>
+      </c>
+      <c r="P20" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D21" t="s">
+        <v>404</v>
+      </c>
+      <c r="E21" t="s">
+        <v>314</v>
+      </c>
+      <c r="F21" t="s">
         <v>333</v>
       </c>
-      <c r="E20" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" t="s">
-        <v>347</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>443</v>
-      </c>
-      <c r="N20" t="s">
-        <v>444</v>
-      </c>
-      <c r="P20" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>344</v>
-      </c>
-      <c r="C21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D21" t="s">
-        <v>418</v>
-      </c>
-      <c r="E21" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" t="s">
-        <v>347</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22">
-        <v>20</v>
+      <c r="A22" t="s">
+        <v>489</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C22" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D22" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="E22" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F22" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23">
-        <v>21</v>
+      <c r="A23" t="s">
+        <v>490</v>
       </c>
       <c r="B23" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D23" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F23" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24">
-        <v>22</v>
+      <c r="A24" t="s">
+        <v>491</v>
       </c>
       <c r="B24" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D24" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="E24" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F24" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25">
-        <v>23</v>
+      <c r="A25" t="s">
+        <v>492</v>
       </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C25" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E25" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5762,688 +6336,688 @@
         <v>36</v>
       </c>
       <c r="M25" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="N25" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26">
-        <v>24</v>
+      <c r="A26" t="s">
+        <v>493</v>
       </c>
       <c r="B26" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C26" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="E26" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F26" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="J26" t="s">
         <v>75</v>
       </c>
       <c r="M26" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="N26" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27">
-        <v>25</v>
+      <c r="A27" t="s">
+        <v>494</v>
       </c>
       <c r="B27" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D27" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E27" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F27" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="J27" t="s">
+        <v>298</v>
+      </c>
+      <c r="M27" t="s">
+        <v>318</v>
+      </c>
+      <c r="N27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>495</v>
+      </c>
+      <c r="B28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C28" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>317</v>
+      </c>
+      <c r="J28" t="s">
+        <v>299</v>
+      </c>
+      <c r="M28" t="s">
+        <v>333</v>
+      </c>
+      <c r="N28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>496</v>
+      </c>
+      <c r="B29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C29" t="s">
+        <v>314</v>
+      </c>
+      <c r="D29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="M27" t="s">
-        <v>332</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="J29" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>344</v>
-      </c>
-      <c r="C28" t="s">
-        <v>328</v>
-      </c>
-      <c r="D28" t="s">
-        <v>328</v>
-      </c>
-      <c r="E28" t="s">
-        <v>328</v>
-      </c>
-      <c r="F28" t="s">
-        <v>340</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>331</v>
-      </c>
-      <c r="J28" t="s">
-        <v>313</v>
-      </c>
-      <c r="M28" t="s">
-        <v>347</v>
-      </c>
-      <c r="N28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>344</v>
-      </c>
-      <c r="C29" t="s">
-        <v>328</v>
-      </c>
-      <c r="D29" t="s">
-        <v>328</v>
-      </c>
-      <c r="E29" t="s">
-        <v>328</v>
-      </c>
-      <c r="F29" t="s">
-        <v>340</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="N29" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30">
-        <v>28</v>
+      <c r="A30" t="s">
+        <v>497</v>
       </c>
       <c r="B30" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C30" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D30" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E30" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F30" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="J30" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31">
-        <v>29</v>
+      <c r="A31" t="s">
+        <v>498</v>
       </c>
       <c r="B31" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C31" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D31" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E31" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F31" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32">
-        <v>30</v>
+      <c r="A32" t="s">
+        <v>499</v>
       </c>
       <c r="B32" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C32" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E32" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F32" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" t="s">
+        <v>500</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D33" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E33" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F33" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" t="s">
+        <v>501</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D34" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F34" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" t="s">
+        <v>502</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E35" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F35" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" t="s">
+        <v>503</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D36" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E36" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F36" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" t="s">
+        <v>504</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F37" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" t="s">
+        <v>505</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F38" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" t="s">
+        <v>506</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F39" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" t="s">
+        <v>507</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F40" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" t="s">
+        <v>508</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" t="s">
+        <v>509</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" t="s">
+        <v>510</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" t="s">
+        <v>511</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" t="s">
+        <v>512</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" t="s">
+        <v>513</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" t="s">
+        <v>514</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" t="s">
+        <v>515</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" t="s">
+        <v>516</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" t="s">
+        <v>517</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" t="s">
+        <v>518</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52">
-        <v>50</v>
+      <c r="A52" t="s">
+        <v>519</v>
       </c>
       <c r="B52" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C52" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D52" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E52" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F52" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -6451,7 +7025,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -6462,10 +7036,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>23</v>
@@ -6484,1150 +7058,1150 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="1">
-        <v>1</v>
+      <c r="A57" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E57" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F57" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="1">
-        <v>2</v>
+      <c r="A58" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E58" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F58" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="1">
-        <v>3</v>
+      <c r="A59" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E59" t="s">
+        <v>396</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E59" t="s">
-        <v>410</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="1">
-        <v>4</v>
+      <c r="A60" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="B60" t="s">
+        <v>328</v>
+      </c>
+      <c r="C60" t="s">
+        <v>324</v>
+      </c>
+      <c r="D60" t="s">
+        <v>324</v>
+      </c>
+      <c r="E60" t="s">
+        <v>396</v>
+      </c>
+      <c r="F60" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B61" t="s">
+        <v>328</v>
+      </c>
+      <c r="C61" t="s">
+        <v>324</v>
+      </c>
+      <c r="D61" t="s">
+        <v>324</v>
+      </c>
+      <c r="E61" t="s">
+        <v>396</v>
+      </c>
+      <c r="F61" t="s">
+        <v>326</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B62" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62" t="s">
+        <v>334</v>
+      </c>
+      <c r="D62" t="s">
+        <v>334</v>
+      </c>
+      <c r="E62" t="s">
+        <v>435</v>
+      </c>
+      <c r="F62" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B63" t="s">
+        <v>328</v>
+      </c>
+      <c r="C63" t="s">
         <v>342</v>
       </c>
-      <c r="C60" t="s">
-        <v>338</v>
-      </c>
-      <c r="D60" t="s">
-        <v>338</v>
-      </c>
-      <c r="E60" t="s">
-        <v>410</v>
-      </c>
-      <c r="F60" t="s">
-        <v>340</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="D63" t="s">
         <v>342</v>
       </c>
-      <c r="C61" t="s">
-        <v>338</v>
-      </c>
-      <c r="D61" t="s">
-        <v>338</v>
-      </c>
-      <c r="E61" t="s">
-        <v>410</v>
-      </c>
-      <c r="F61" t="s">
-        <v>340</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1">
-        <v>6</v>
-      </c>
-      <c r="B62" t="s">
-        <v>342</v>
-      </c>
-      <c r="C62" t="s">
-        <v>348</v>
-      </c>
-      <c r="D62" t="s">
-        <v>348</v>
-      </c>
-      <c r="E62" t="s">
-        <v>349</v>
-      </c>
-      <c r="F62" t="s">
-        <v>340</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1">
-        <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>342</v>
-      </c>
-      <c r="C63" t="s">
-        <v>356</v>
-      </c>
-      <c r="D63" t="s">
-        <v>356</v>
-      </c>
       <c r="E63" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F63" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="1">
-        <v>8</v>
+      <c r="A64" s="1" t="s">
+        <v>527</v>
       </c>
       <c r="B64" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C64" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D64" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="E64" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F64" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="1">
-        <v>9</v>
+      <c r="A65" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="B65" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C65" t="s">
+        <v>319</v>
+      </c>
+      <c r="D65" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" t="s">
+        <v>417</v>
+      </c>
+      <c r="F65" t="s">
         <v>333</v>
       </c>
-      <c r="D65" t="s">
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B66" t="s">
+        <v>318</v>
+      </c>
+      <c r="C66" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" t="s">
+        <v>318</v>
+      </c>
+      <c r="E66" t="s">
+        <v>324</v>
+      </c>
+      <c r="F66" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B67" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E67" t="s">
+        <v>324</v>
+      </c>
+      <c r="F67" t="s">
         <v>333</v>
-      </c>
-      <c r="E65" t="s">
-        <v>431</v>
-      </c>
-      <c r="F65" t="s">
-        <v>347</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1">
-        <v>10</v>
-      </c>
-      <c r="B66" t="s">
-        <v>332</v>
-      </c>
-      <c r="C66" t="s">
-        <v>332</v>
-      </c>
-      <c r="D66" t="s">
-        <v>332</v>
-      </c>
-      <c r="E66" t="s">
-        <v>338</v>
-      </c>
-      <c r="F66" t="s">
-        <v>340</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1">
-        <v>11</v>
-      </c>
-      <c r="B67" t="s">
-        <v>344</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E67" t="s">
-        <v>338</v>
-      </c>
-      <c r="F67" t="s">
-        <v>347</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="1">
-        <v>12</v>
+      <c r="A68" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="B68" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C68" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D68" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E68" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F68" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="1">
-        <v>13</v>
+      <c r="A69" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="B69" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C69" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D69" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E69" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F69" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="1">
-        <v>14</v>
+      <c r="A70" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="B70" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" t="s">
+        <v>319</v>
+      </c>
+      <c r="E70" t="s">
+        <v>396</v>
+      </c>
+      <c r="F70" t="s">
         <v>333</v>
-      </c>
-      <c r="D70" t="s">
-        <v>333</v>
-      </c>
-      <c r="E70" t="s">
-        <v>410</v>
-      </c>
-      <c r="F70" t="s">
-        <v>347</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="1">
-        <v>15</v>
+      <c r="A71" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C71" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D71" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E71" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F71" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="1">
-        <v>16</v>
+      <c r="A72" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="B72" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C72" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D72" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E72" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F72" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="1">
-        <v>17</v>
+      <c r="A73" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="B73" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C73" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D73" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E73" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F73" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="1">
-        <v>18</v>
+      <c r="A74" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="B74" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C74" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="D74" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E74" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="F74" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="1">
-        <v>19</v>
+      <c r="A75" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="B75" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C75" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="D75" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E75" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="F75" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="1">
-        <v>20</v>
+      <c r="A76" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="B76" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C76" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D76" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E76" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F76" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="1">
-        <v>21</v>
+      <c r="A77" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="B77" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C77" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D77" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E77" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F77" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="1">
-        <v>22</v>
+      <c r="A78" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C78" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D78" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E78" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F78" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="1">
-        <v>23</v>
+      <c r="A79" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C79" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D79" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E79" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F79" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="1">
-        <v>24</v>
+      <c r="A80" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="B80" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C80" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="D80" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="E80" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="F80" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="1">
-        <v>25</v>
+      <c r="A81" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="B81" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C81" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="D81" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="E81" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="F81" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="1">
-        <v>26</v>
+      <c r="A82" s="1" t="s">
+        <v>545</v>
       </c>
       <c r="B82" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C82" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D82" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E82" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F82" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="1">
-        <v>27</v>
+      <c r="A83" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="B83" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C83" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D83" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="E83" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="F83" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="1">
-        <v>28</v>
+      <c r="A84" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="B84" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C84" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D84" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E84" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F84" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="1">
-        <v>29</v>
+      <c r="A85" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C85" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D85" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E85" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F85" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="1">
-        <v>30</v>
+      <c r="A86" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="B86" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" t="s">
+        <v>324</v>
+      </c>
+      <c r="E86" t="s">
+        <v>435</v>
+      </c>
+      <c r="F86" t="s">
+        <v>326</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E87" t="s">
+        <v>396</v>
+      </c>
+      <c r="F87" t="s">
+        <v>326</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B88" t="s">
+        <v>328</v>
+      </c>
+      <c r="C88" t="s">
         <v>342</v>
       </c>
-      <c r="C86" t="s">
-        <v>338</v>
-      </c>
-      <c r="D86" t="s">
-        <v>338</v>
-      </c>
-      <c r="E86" t="s">
-        <v>349</v>
-      </c>
-      <c r="F86" t="s">
-        <v>340</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="1">
-        <v>31</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="D88" t="s">
         <v>342</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E87" t="s">
-        <v>410</v>
-      </c>
-      <c r="F87" t="s">
-        <v>340</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="1">
-        <v>32</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="E88" t="s">
+        <v>396</v>
+      </c>
+      <c r="F88" t="s">
+        <v>326</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B89" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" t="s">
         <v>342</v>
       </c>
-      <c r="C88" t="s">
-        <v>356</v>
-      </c>
-      <c r="D88" t="s">
-        <v>356</v>
-      </c>
-      <c r="E88" t="s">
-        <v>410</v>
-      </c>
-      <c r="F88" t="s">
-        <v>340</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="1">
-        <v>33</v>
-      </c>
-      <c r="B89" t="s">
-        <v>344</v>
-      </c>
-      <c r="C89" t="s">
-        <v>356</v>
-      </c>
       <c r="D89" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E89" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F89" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="1">
-        <v>34</v>
+      <c r="A90" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="B90" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D90" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E90" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F90" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="1">
-        <v>35</v>
+      <c r="A91" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="B91" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C91" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D91" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E91" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F91" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="1">
-        <v>36</v>
+      <c r="A92" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="B92" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C92" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D92" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E92" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F92" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="1">
-        <v>37</v>
+      <c r="A93" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="B93" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C93" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D93" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E93" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F93" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="1">
-        <v>38</v>
+      <c r="A94" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="B94" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C94" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D94" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E94" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F94" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="1">
-        <v>39</v>
+      <c r="A95" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="B95" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C95" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D95" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E95" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F95" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="1">
-        <v>40</v>
+      <c r="A96" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="B96" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C96" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D96" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E96" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F96" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="1">
-        <v>41</v>
+      <c r="A97" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="B97" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C97" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D97" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E97" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F97" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="1">
-        <v>42</v>
+      <c r="A98" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E98" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F98" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G98" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="1">
-        <v>43</v>
+      <c r="A99" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="B99" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C99" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="D99" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="E99" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="F99" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="1">
-        <v>44</v>
+      <c r="A100" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="B100" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C100" t="s">
+        <v>319</v>
+      </c>
+      <c r="D100" t="s">
+        <v>319</v>
+      </c>
+      <c r="E100" t="s">
+        <v>437</v>
+      </c>
+      <c r="F100" t="s">
         <v>333</v>
-      </c>
-      <c r="D100" t="s">
-        <v>333</v>
-      </c>
-      <c r="E100" t="s">
-        <v>451</v>
-      </c>
-      <c r="F100" t="s">
-        <v>347</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="1">
-        <v>45</v>
+      <c r="A101" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="B101" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C101" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D101" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E101" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F101" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="1">
-        <v>46</v>
+      <c r="A102" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="E102" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F102" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G102" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="1">
-        <v>47</v>
+      <c r="A103" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E103" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F103" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G103" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="1">
-        <v>48</v>
+      <c r="A104" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="B104" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C104" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D104" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E104" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="F104" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="1">
-        <v>49</v>
+      <c r="A105" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="F105" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G105" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="1">
-        <v>50</v>
+      <c r="A106" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="F106" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G106" s="1">
         <v>1</v>
@@ -7648,11 +8222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7712,955 +8286,955 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="I3" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
         <v>87</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="K4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="I5" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="H6" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="I6" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="I7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H8" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="K8" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H9" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="K9" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>383</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="F10" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>357</v>
       </c>
+      <c r="F10" s="22" t="s">
+        <v>343</v>
+      </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="J10" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="K10" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
         <v>110</v>
       </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>358</v>
       </c>
+      <c r="F11" s="22" t="s">
+        <v>344</v>
+      </c>
       <c r="H11" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="K11" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>384</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>363</v>
+        <v>370</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="H12" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="I12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="J12" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="K12" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>385</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>359</v>
+        <v>371</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>345</v>
       </c>
       <c r="H13" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="I13" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="J13" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="K13" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>360</v>
+        <v>126</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>346</v>
       </c>
       <c r="H14" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="I14" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="J14" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="K14" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>361</v>
+        <v>132</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>347</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="K15" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>414</v>
+        <v>136</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>400</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="K16" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="K17" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="J19" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="K19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I20" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="J20" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="K20" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="K21" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="H22" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="I22" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="J22" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="K22" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="H23" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="I23" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="J23" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="K23" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H24" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="I24" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="J24" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="H25" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="I25" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18">
       <c r="A27" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="H27" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="I27" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J27" t="s">
-        <v>461</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>460</v>
+        <v>447</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>446</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="H28" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="I28" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
+        <v>451</v>
+      </c>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
       <c r="L29" s="3" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="K30" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J30" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="K30" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="L30" s="43" t="s">
-        <v>479</v>
+      <c r="L30" s="39" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>464</v>
+        <v>159</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>391</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K31" s="31"/>
+        <v>221</v>
+      </c>
+      <c r="K31" s="27"/>
       <c r="L31" s="3" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75">
       <c r="A32" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>406</v>
+        <v>449</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>392</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J32" s="45" t="s">
-        <v>483</v>
-      </c>
-      <c r="K32" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="L32" s="43" t="s">
-        <v>482</v>
+        <v>227</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75">
       <c r="A33" s="1" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="32"/>
+        <v>391</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:12" ht="15.75">
       <c r="A34" s="1" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="19"/>
+        <v>392</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="32"/>
+        <v>373</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="33"/>
+        <v>141</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="32"/>
+        <v>141</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>377</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
+        <v>363</v>
+      </c>
+      <c r="H38" s="26"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B39" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C39" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -8707,7 +9281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A7:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
